--- a/Script/Dataframes/df_Acuse_Presentacion.xlsx
+++ b/Script/Dataframes/df_Acuse_Presentacion.xlsx
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Fecha_y_hora_presentacion</t>
+          <t>Fecha y hora presentacion</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Num_de_Operacion</t>
+          <t>Num de Operacion</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Periodo_de_declaracion</t>
+          <t>Periodo de declaracion</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,17 +466,17 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>total_a_pagar</t>
+          <t>total a pagar</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Vigente_hasta</t>
+          <t>Vigente hasta</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Linea_de_Captura</t>
+          <t>Linea de Captura</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Impuesto_a_favor</t>
+          <t>Impuesto a favor</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">

--- a/Script/Dataframes/df_Acuse_Presentacion.xlsx
+++ b/Script/Dataframes/df_Acuse_Presentacion.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Periodo de declaracion</t>
+          <t>Periodo de Declaracion</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,12 +466,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>total a pagar</t>
+          <t>Total a Pagar</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Vigente hasta</t>
+          <t>Vigente Hasta</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Impuesto a favor</t>
+          <t>Impuesto a Favor</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">

--- a/Script/Dataframes/df_Acuse_Presentacion.xlsx
+++ b/Script/Dataframes/df_Acuse_Presentacion.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
